--- a/SampleTest.xlsx
+++ b/SampleTest.xlsx
@@ -104,7 +104,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Mihir</t>
+    <t>Sarthak</t>
   </si>
 </sst>
 </file>
